--- a/config_10.12/shoping_config_vivo.xlsx
+++ b/config_10.12/shoping_config_vivo.xlsx
@@ -10709,10 +10709,10 @@
   <dimension ref="A1:AO724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W679" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X655" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A709" sqref="A709:XFD724"/>
+      <selection pane="bottomRight" activeCell="Z662" sqref="Z662:AA670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -53417,7 +53417,7 @@
         <v>10578</v>
       </c>
       <c r="F662" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G662" s="29" t="s">
         <v>1595</v>
@@ -53459,10 +53459,10 @@
         <v>99999999</v>
       </c>
       <c r="Z662" s="29">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA662" s="29">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB662" s="29">
         <v>44</v>
@@ -53488,7 +53488,7 @@
         <v>10579</v>
       </c>
       <c r="F663" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G663" s="29" t="s">
         <v>1595</v>
@@ -53530,10 +53530,10 @@
         <v>99999999</v>
       </c>
       <c r="Z663" s="29">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA663" s="29">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB663" s="29">
         <v>44</v>
@@ -53559,7 +53559,7 @@
         <v>10580</v>
       </c>
       <c r="F664" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G664" s="29" t="s">
         <v>1595</v>
@@ -53601,10 +53601,10 @@
         <v>99999999</v>
       </c>
       <c r="Z664" s="29">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA664" s="29">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB664" s="29">
         <v>44</v>
@@ -53630,7 +53630,7 @@
         <v>10581</v>
       </c>
       <c r="F665" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G665" s="29" t="s">
         <v>1595</v>
@@ -53672,10 +53672,10 @@
         <v>99999999</v>
       </c>
       <c r="Z665" s="29">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA665" s="29">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB665" s="29">
         <v>45</v>
@@ -53701,7 +53701,7 @@
         <v>10582</v>
       </c>
       <c r="F666" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G666" s="29" t="s">
         <v>1595</v>
@@ -53743,10 +53743,10 @@
         <v>99999999</v>
       </c>
       <c r="Z666" s="29">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA666" s="29">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB666" s="29">
         <v>45</v>
@@ -53772,7 +53772,7 @@
         <v>10583</v>
       </c>
       <c r="F667" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G667" s="29" t="s">
         <v>1595</v>
@@ -53814,10 +53814,10 @@
         <v>99999999</v>
       </c>
       <c r="Z667" s="29">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA667" s="29">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB667" s="29">
         <v>45</v>
@@ -53843,7 +53843,7 @@
         <v>10584</v>
       </c>
       <c r="F668" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G668" s="29" t="s">
         <v>1595</v>
@@ -53885,10 +53885,10 @@
         <v>99999999</v>
       </c>
       <c r="Z668" s="29">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA668" s="29">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB668" s="29">
         <v>46</v>
@@ -53914,7 +53914,7 @@
         <v>10585</v>
       </c>
       <c r="F669" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G669" s="29" t="s">
         <v>1595</v>
@@ -53956,10 +53956,10 @@
         <v>99999999</v>
       </c>
       <c r="Z669" s="29">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA669" s="29">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB669" s="29">
         <v>46</v>
@@ -53985,7 +53985,7 @@
         <v>10586</v>
       </c>
       <c r="F670" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G670" s="29" t="s">
         <v>1595</v>
@@ -54027,10 +54027,10 @@
         <v>99999999</v>
       </c>
       <c r="Z670" s="29">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA670" s="29">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB670" s="29">
         <v>46</v>
